--- a/DASHBOARD-MANAS.xlsx
+++ b/DASHBOARD-MANAS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filhos\Documents\willyan\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAAA69-0AD8-49BF-8682-EA5013DC331A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA GERAL" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="343">
   <si>
     <t>TABELA GERAL</t>
   </si>
@@ -1092,7 +1091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1180,19 +1179,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1303,8 +1290,8 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="willyan" pivot="0" table="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
+    <tableStyle name="willyan" pivot="0" table="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1381,7 +1368,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica6</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1475,47 +1462,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1816,7 +1762,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]CONTABILIDADE!Tabela dinâmica15</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]CONTABILIDADE!Tabela dinâmica15</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1881,47 +1827,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1937,47 +1842,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -1993,47 +1857,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2068,19 +1891,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$K$3:$K$7</c:f>
+              <c:f>CONTABILIDADE!$K$3:$K$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -2088,20 +1902,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$L$3:$L$7</c:f>
+              <c:f>CONTABILIDADE!$L$3:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12460</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>13115</c:v>
                 </c:pt>
               </c:numCache>
@@ -2139,19 +1944,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$K$3:$K$7</c:f>
+              <c:f>CONTABILIDADE!$K$3:$K$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -2159,20 +1955,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$M$3:$M$7</c:f>
+              <c:f>CONTABILIDADE!$M$3:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3695</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>3720</c:v>
                 </c:pt>
               </c:numCache>
@@ -2210,19 +1997,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$K$3:$K$7</c:f>
+              <c:f>CONTABILIDADE!$K$3:$K$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -2230,20 +2008,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$N$3:$N$7</c:f>
+              <c:f>CONTABILIDADE!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4049</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6643</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8765</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9395</c:v>
                 </c:pt>
               </c:numCache>
@@ -2453,7 +2222,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]REDES-SOCIAIS!Tabela dinâmica16</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]REDES-SOCIAIS!Tabela dinâmica16</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2543,47 +2312,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2828,7 +2556,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]REDES-SOCIAIS!Tabela dinâmica17</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]REDES-SOCIAIS!Tabela dinâmica17</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2923,47 +2651,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3209,7 +2896,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]REDES-SOCIAIS!Tabela dinâmica18</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]REDES-SOCIAIS!Tabela dinâmica18</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3303,47 +2990,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -3730,7 +3376,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]REDES-SOCIAIS!Tabela dinâmica19</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]REDES-SOCIAIS!Tabela dinâmica19</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3795,47 +3441,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -3851,47 +3456,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -3907,47 +3471,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4450,6 +3973,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4472,18 +3996,12 @@
             <c:strRef>
               <c:f>CONTABILIDADE!$B$3:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
+                  <c:v>ABRIL</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ABRIL</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4495,15 +4013,9 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7669</c:v>
+                  <c:v>13115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12460</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>13115</c:v>
                 </c:pt>
               </c:numCache>
@@ -4737,6 +4249,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4759,18 +4272,12 @@
             <c:strRef>
               <c:f>CONTABILIDADE!$H$3:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
+                  <c:v>ABRIL</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ABRIL</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4782,15 +4289,9 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4049</c:v>
+                  <c:v>9395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6643</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8765</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9395</c:v>
                 </c:pt>
               </c:numCache>
@@ -4970,18 +4471,12 @@
             <c:strRef>
               <c:f>CONTABILIDADE!$E$3:$E$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
+                  <c:v>ABRIL</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ABRIL</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4993,15 +4488,9 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3620</c:v>
+                  <c:v>3720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3695</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>3720</c:v>
                 </c:pt>
               </c:numCache>
@@ -5453,7 +4942,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5519,6 +5010,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5589,7 +5081,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica7</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica7</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -5679,47 +5171,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6062,6 +5513,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6352,6 +5804,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6862,7 +6315,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6934,6 +6389,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7341,6 +6797,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7602,6 +7059,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7794,7 +7252,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]REDES-SOCIAIS!Tabela dinâmica19</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]REDES-SOCIAIS!Tabela dinâmica19</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -7959,6 +7417,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7993,7 +7452,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8019,6 +7480,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8053,7 +7515,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8079,6 +7543,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8113,7 +7578,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8206,6 +7673,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8338,6 +7806,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8470,6 +7939,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8870,7 +8340,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica8</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica8</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -8975,47 +8445,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -9288,6 +8717,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9560,6 +8990,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9914,7 +9345,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9979,6 +9412,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10052,37 +9486,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -10423,7 +9827,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10549,6 +9955,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10622,7 +10029,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica10</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica10</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -10724,47 +10131,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -11054,7 +10420,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica11</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica11</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -11148,47 +10514,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -11893,7 +11218,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]TABELAS-GERAIS!Tabela dinâmica1</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]TABELAS-GERAIS!Tabela dinâmica1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -11958,47 +11283,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -12306,7 +11590,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]CONTABILIDADE!Tabela dinâmica12</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]CONTABILIDADE!Tabela dinâmica12</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -12396,47 +11680,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -12471,19 +11714,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$B$3:$B$7</c:f>
+              <c:f>CONTABILIDADE!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -12491,20 +11725,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$C$3:$C$7</c:f>
+              <c:f>CONTABILIDADE!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12460</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>13115</c:v>
                 </c:pt>
               </c:numCache>
@@ -12681,7 +11906,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]CONTABILIDADE!Tabela dinâmica13</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]CONTABILIDADE!Tabela dinâmica13</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -12775,47 +12000,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -12974,19 +12158,10 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$E$3:$E$7</c:f>
+              <c:f>CONTABILIDADE!$E$3:$E$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -12994,20 +12169,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$F$3:$F$7</c:f>
+              <c:f>CONTABILIDADE!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3695</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>3720</c:v>
                 </c:pt>
               </c:numCache>
@@ -13146,7 +12312,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[willyan.xlsx]CONTABILIDADE!Tabela dinâmica14</c:name>
+    <c:name>[DASHBOARD-MANAS.xlsx]CONTABILIDADE!Tabela dinâmica14</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -13236,47 +12402,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -13311,19 +12436,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CONTABILIDADE!$H$3:$H$7</c:f>
+              <c:f>CONTABILIDADE!$H$3:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
@@ -13331,20 +12447,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CONTABILIDADE!$I$3:$I$7</c:f>
+              <c:f>CONTABILIDADE!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4049</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6643</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8765</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9395</c:v>
                 </c:pt>
               </c:numCache>
@@ -34886,7 +33993,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> R$ 10.393,00 </a:t>
+            <a:t> R$ 13.115,00 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000" b="1">
             <a:solidFill>
@@ -35014,7 +34121,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> R$ 3.750,00 </a:t>
+            <a:t> R$ 3.720,00 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000" b="1">
             <a:solidFill>
@@ -35092,7 +34199,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> R$ 6.643,00 </a:t>
+            <a:t> R$ 9.395,00 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000" b="1">
             <a:solidFill>
@@ -37380,18 +36487,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>145256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
+      <xdr:colOff>316706</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="48" name="MÊS 4">
@@ -37414,7 +36521,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -37424,8 +36531,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="238125" y="2964656"/>
-              <a:ext cx="3095625" cy="1476376"/>
+              <a:off x="257175" y="3002756"/>
+              <a:ext cx="3107531" cy="1531144"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -41809,10 +40916,10 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="68" name="MÊS 5">
@@ -41835,7 +40942,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -41846,7 +40953,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="261937" y="2940843"/>
-              <a:ext cx="3059907" cy="1500187"/>
+              <a:ext cx="3071813" cy="1554957"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -43704,16 +42811,16 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>297656</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="32" name="MÊS 6">
@@ -43736,7 +42843,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -43746,8 +42853,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="238125" y="2964656"/>
-              <a:ext cx="3095625" cy="1476376"/>
+              <a:off x="238125" y="2964655"/>
+              <a:ext cx="3107531" cy="1590027"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -44093,6 +43200,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -44170,6 +43278,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>EXCELENTE</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="8800" b="1">
@@ -44247,6 +43356,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="8800" b="1">
@@ -44732,6 +43842,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>600</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="19900" b="1">
@@ -44749,7 +43860,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45461.390302777778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45461.390302777778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -44781,7 +43892,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45462.488292245369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="600" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45462.488292245369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="600">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -45340,7 +44451,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45463.487534837965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF1D000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45463.487534837965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
@@ -52060,1061 +51171,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="B50:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="20" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de FEEDBACK" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de LUCRO" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabela dinâmica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabela dinâmica17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -53577,8 +51634,537 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de LUCRO" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E4:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -54081,8 +52667,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -54588,8 +53174,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="K25:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -55101,8 +53687,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Tabela dinâmica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E50:F64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -55777,15 +54363,531 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="B50:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de FEEDBACK" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K2:N4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -55797,16 +54899,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="3"/>
     </i>
@@ -55834,7 +54927,7 @@
     <dataField name="-LUCRO REAL" fld="3" baseField="0" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -55880,14 +54973,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H2:I4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -55899,16 +54992,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="3"/>
     </i>
@@ -55923,7 +55007,7 @@
     <dataField name="Soma de LUCRO REAL" fld="3" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -55951,14 +55035,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="E2:F4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -55970,16 +55054,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="3"/>
     </i>
@@ -55994,7 +55069,7 @@
     <dataField name="Soma de GASTOS" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -56070,7 +55145,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS1" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS1" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="14" name="Tabela dinâmica12"/>
     <pivotTable tabId="14" name="Tabela dinâmica13"/>
@@ -56080,9 +55155,9 @@
   <data>
     <tabular pivotCacheId="3">
       <items count="4">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
       </items>
     </tabular>
@@ -56091,7 +55166,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="15" name="Tabela dinâmica19"/>
     <pivotTable tabId="15" name="Tabela dinâmica16"/>
@@ -56116,7 +55191,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS2" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS2" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="10" name="Tabela dinâmica6"/>
     <pivotTable tabId="10" name="Tabela dinâmica11"/>
@@ -56146,73 +55221,73 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 3" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 1" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="SegmentaçãodeDados_MÊS" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS" cache="SegmentaçãodeDados_MÊS" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 2" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 4" xr10:uid="{00000000-0014-0000-FFFF-FFFF05000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 4" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer6.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 5" xr10:uid="{00000000-0014-0000-FFFF-FFFF06000000}" cache="SegmentaçãodeDados_MÊS" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 5" cache="SegmentaçãodeDados_MÊS" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="MÊS 6" xr10:uid="{00000000-0014-0000-FFFF-FFFF07000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MÊS 6" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B3:J603" totalsRowShown="0">
-  <autoFilter ref="B3:J603" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:J603" totalsRowShown="0">
+  <autoFilter ref="B3:J603"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MÊS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HORARIO" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CLIENTE"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROCEDIMENTO" dataDxfId="22" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VALOR" dataDxfId="21" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FORMA DE PAGAMENTO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FEEDBACK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FAIXA ETÁRIA"/>
+    <tableColumn id="1" name="DATA" dataDxfId="21"/>
+    <tableColumn id="2" name="MÊS" dataDxfId="20"/>
+    <tableColumn id="3" name="HORARIO" dataDxfId="19"/>
+    <tableColumn id="4" name="CLIENTE"/>
+    <tableColumn id="5" name="PROCEDIMENTO" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="VALOR" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="7" name="FORMA DE PAGAMENTO"/>
+    <tableColumn id="8" name="FEEDBACK"/>
+    <tableColumn id="9" name="FAIXA ETÁRIA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="L3:O7" totalsRowShown="0">
-  <autoFilter ref="L3:O7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="L3:O7" totalsRowShown="0">
+  <autoFilter ref="L3:O7"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MÊS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="LUCRO" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="GASTOS" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="LUCRO REAL" dataCellStyle="Moeda">
+    <tableColumn id="1" name="MÊS"/>
+    <tableColumn id="2" name="LUCRO" dataDxfId="16"/>
+    <tableColumn id="3" name="GASTOS" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="LUCRO REAL" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -56221,16 +55296,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="L10:R14" totalsRowShown="0">
-  <autoFilter ref="L10:R14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="L10:R14" totalsRowShown="0">
+  <autoFilter ref="L10:R14"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MÊS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SEGUIDORES"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="NOVOS SEGUIDORES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="STORYS VIZUALIZAÇÃO"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="MANICURE-VIZUALIZAÇÃO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CÍLIOS VIZUALIZAÇÃO"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="SOBRANCELHA VIZUALIZAÇÃO"/>
+    <tableColumn id="1" name="MÊS"/>
+    <tableColumn id="2" name="SEGUIDORES"/>
+    <tableColumn id="3" name="NOVOS SEGUIDORES"/>
+    <tableColumn id="4" name="STORYS VIZUALIZAÇÃO"/>
+    <tableColumn id="5" name="MANICURE-VIZUALIZAÇÃO"/>
+    <tableColumn id="6" name="CÍLIOS VIZUALIZAÇÃO"/>
+    <tableColumn id="7" name="SOBRANCELHA VIZUALIZAÇÃO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -56498,7 +55573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R648"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -74403,7 +73478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L64"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
@@ -74877,8 +73952,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -74893,7 +73968,9 @@
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -74930,162 +74007,66 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C3" s="7">
-        <v>7669</v>
+        <v>13115</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F3" s="7">
-        <v>3620</v>
+        <v>3720</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I3" s="7">
-        <v>4049</v>
+        <v>9395</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L3" s="7">
-        <v>7669</v>
+        <v>13115</v>
       </c>
       <c r="M3" s="7">
-        <v>3620</v>
+        <v>3720</v>
       </c>
       <c r="N3" s="7">
-        <v>4049</v>
+        <v>9395</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C4" s="7">
-        <v>10393</v>
+        <v>13115</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7">
-        <v>3750</v>
+        <v>3720</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I4" s="7">
-        <v>6643</v>
+        <v>9395</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7">
-        <v>10393</v>
+        <v>13115</v>
       </c>
       <c r="M4" s="7">
-        <v>3750</v>
+        <v>3720</v>
       </c>
       <c r="N4" s="7">
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="7">
-        <v>12460</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3695</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8765</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="L5" s="7">
-        <v>12460</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3695</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8765</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7">
-        <v>13115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3720</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="I6" s="7">
         <v>9395</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L6" s="7">
-        <v>13115</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3720</v>
-      </c>
-      <c r="N6" s="7">
-        <v>9395</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43637</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="7">
-        <v>14785</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I7" s="7">
-        <v>28852</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L7" s="7">
-        <v>43637</v>
-      </c>
-      <c r="M7" s="7">
-        <v>14785</v>
-      </c>
-      <c r="N7" s="7">
-        <v>28852</v>
       </c>
     </row>
   </sheetData>
@@ -75102,7 +74083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -75329,10 +74310,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -75350,7 +74331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
@@ -75371,7 +74352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
@@ -75392,7 +74373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
